--- a/website-coding-stats.xlsx
+++ b/website-coding-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB365BEA-4734-486D-8E4C-83899F5F215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3028B9-3A35-4348-8C6A-C1A50058A35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60BA45DA-04AF-4DD8-9CFE-F0F8685C6139}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Wakatime</t>
-  </si>
-  <si>
     <t>Daily Average</t>
   </si>
   <si>
@@ -54,16 +51,31 @@
     <t>Days spent</t>
   </si>
   <si>
-    <t>Working</t>
-  </si>
-  <si>
-    <t>Not working</t>
-  </si>
-  <si>
     <t>www.cypo.repl.co</t>
   </si>
   <si>
     <t>Website coding stats</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data provided by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wakatime</t>
+    </r>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Not coding</t>
   </si>
 </sst>
 </file>
@@ -1290,10 +1302,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Working</c:v>
+                  <c:v>Coding</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Not working</c:v>
+                  <c:v>Not coding</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Total</c:v>
@@ -1311,10 +1323,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,16 +1991,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>636000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>8471</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>651240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16091</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2015,15 +2027,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>3183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>636000</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>643620</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2053,16 +2065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>296686</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>23711</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>639586</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16091</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2467,7 +2479,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2479,7 +2491,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -2514,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="34"/>
     </row>
@@ -2532,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="25">
-        <f>B5+C5+D5</f>
+        <f t="shared" ref="E5:E23" si="0">B5+C5+D5</f>
         <v>0.15833333333333333</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -2557,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="25">
-        <f>B6+C6+D6</f>
+        <f t="shared" si="0"/>
         <v>0.22708333333333336</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -2582,7 +2594,7 @@
         <v>9.375E-2</v>
       </c>
       <c r="E7" s="25">
-        <f>B7+C7+D7</f>
+        <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -2607,7 +2619,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E8" s="25">
-        <f>B8+C8+D8</f>
+        <f t="shared" si="0"/>
         <v>0.13611111111111113</v>
       </c>
       <c r="G8" s="26" t="s">
@@ -2632,7 +2644,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="E9" s="25">
-        <f>B9+C9+D9</f>
+        <f t="shared" si="0"/>
         <v>0.15138888888888888</v>
       </c>
       <c r="H9" s="2"/>
@@ -2651,11 +2663,11 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="E10" s="25">
-        <f>B10+C10+D10</f>
+        <f t="shared" si="0"/>
         <v>0.37569444444444444</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="35"/>
     </row>
@@ -2673,7 +2685,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="E11" s="25">
-        <f>B11+C11+D11</f>
+        <f t="shared" si="0"/>
         <v>0.19791666666666669</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -2698,7 +2710,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="E12" s="25">
-        <f>B12+C12+D12</f>
+        <f t="shared" si="0"/>
         <v>0.30208333333333331</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -2723,7 +2735,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="E13" s="25">
-        <f>B13+C13+D13</f>
+        <f t="shared" si="0"/>
         <v>0.15694444444444444</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -2748,7 +2760,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
       <c r="E14" s="25">
-        <f>B14+C14+D14</f>
+        <f t="shared" si="0"/>
         <v>0.18958333333333333</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -2773,7 +2785,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="E15" s="25">
-        <f>B15+C15+D15</f>
+        <f t="shared" si="0"/>
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="H15" s="2"/>
@@ -2792,11 +2804,11 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="E16" s="25">
-        <f>B16+C16+D16</f>
+        <f t="shared" si="0"/>
         <v>0.30347222222222225</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="35"/>
     </row>
@@ -2814,11 +2826,11 @@
         <v>0.17847222222222223</v>
       </c>
       <c r="E17" s="25">
-        <f>B17+C17+D17</f>
+        <f t="shared" si="0"/>
         <v>0.3263888888888889</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H17" s="18">
         <f>COUNTA(E5:E23)</f>
@@ -2839,15 +2851,15 @@
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="E18" s="25">
-        <f>B18+C18+D18</f>
+        <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" s="19">
         <f ca="1">H19-H17</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2864,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="25">
-        <f>B19+C19+D19</f>
+        <f t="shared" si="0"/>
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -2872,7 +2884,7 @@
       </c>
       <c r="H19" s="21">
         <f ca="1">TODAY()-A5</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2889,7 +2901,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="E20" s="25">
-        <f>B20+C20+D20</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H20" s="2"/>
@@ -2908,11 +2920,11 @@
         <v>0.1125</v>
       </c>
       <c r="E21" s="25">
-        <f>B21+C21+D21</f>
+        <f t="shared" si="0"/>
         <v>0.16250000000000001</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H21" s="30"/>
     </row>
@@ -2930,7 +2942,7 @@
         <v>3.1944444444444449E-2</v>
       </c>
       <c r="E22" s="25">
-        <f>B22+C22+D22</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333343E-2</v>
       </c>
       <c r="G22" s="31"/>
@@ -2950,7 +2962,7 @@
         <v>0.21875</v>
       </c>
       <c r="E23" s="25">
-        <f>B23+C23+D23</f>
+        <f t="shared" si="0"/>
         <v>0.29791666666666666</v>
       </c>
     </row>
@@ -3015,7 +3027,7 @@
     <cfRule type="aboveAverage" dxfId="14" priority="43"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" xr:uid="{3D343FDD-423F-4C9B-9351-F003B55B9401}"/>
+    <hyperlink ref="G21" r:id="rId1" display="Wakatime" xr:uid="{3D343FDD-423F-4C9B-9351-F003B55B9401}"/>
     <hyperlink ref="A2:H2" r:id="rId2" display="www.cypo.repl.co" xr:uid="{88E05A3D-B8DF-47B5-823B-0D110D974CC4}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{A53B4B44-7C9F-4D4D-BE65-FE5F8F00261A}"/>
   </hyperlinks>

--- a/website-coding-stats.xlsx
+++ b/website-coding-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3028B9-3A35-4348-8C6A-C1A50058A35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91E69F-51D9-4483-A6A2-802A160F27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60BA45DA-04AF-4DD8-9CFE-F0F8685C6139}"/>
   </bookViews>
@@ -750,16 +750,16 @@
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.4671052631578944E-2</c:v>
+                  <c:v>7.1979166666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8611111111111112E-2</c:v>
+                  <c:v>4.6180555555555558E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.089181286549708E-2</c:v>
+                  <c:v>5.7916666666666672E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18417397660818716</c:v>
+                  <c:v>0.17607638888888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,16 +1024,16 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.41875</c:v>
+                  <c:v>1.4395833333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.92361111111111116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1569444444444446</c:v>
+                  <c:v>1.1583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4993055555555554</c:v>
+                  <c:v>3.521527777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,13 +1320,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2146,8 +2146,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E23" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A4:E23" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E24" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A4:E24" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E23">
     <sortCondition ref="A4:A23"/>
   </sortState>
@@ -2544,15 +2544,15 @@
         <v>0</v>
       </c>
       <c r="E5" s="25">
-        <f t="shared" ref="E5:E23" si="0">B5+C5+D5</f>
+        <f t="shared" ref="E5:E24" si="0">B5+C5+D5</f>
         <v>0.15833333333333333</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f>AVERAGE(B$4:B$23)</f>
-        <v>7.4671052631578944E-2</v>
+        <f>AVERAGE(B$4:B$24)</f>
+        <v>7.1979166666666664E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2576,8 +2576,8 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <f>AVERAGE(C$4:C$23)</f>
-        <v>4.8611111111111112E-2</v>
+        <f>AVERAGE(C$4:C$24)</f>
+        <v>4.6180555555555558E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2601,8 +2601,8 @@
         <v>3</v>
       </c>
       <c r="H7" s="3">
-        <f>AVERAGE(D$4:D$23)</f>
-        <v>6.089181286549708E-2</v>
+        <f>AVERAGE(D$4:D$24)</f>
+        <v>5.7916666666666672E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2626,8 +2626,8 @@
         <v>4</v>
       </c>
       <c r="H8" s="27">
-        <f>AVERAGE(E$4:E$23)</f>
-        <v>0.18417397660818716</v>
+        <f>AVERAGE(E$4:E$24)</f>
+        <v>0.17607638888888891</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2692,8 +2692,8 @@
         <v>1</v>
       </c>
       <c r="H11" s="11">
-        <f>SUM(B$4:B$23)</f>
-        <v>1.41875</v>
+        <f>SUM(B$4:B$24)</f>
+        <v>1.4395833333333332</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2717,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(C$4:C$23)</f>
+        <f>SUM(C$4:C$24)</f>
         <v>0.92361111111111116</v>
       </c>
     </row>
@@ -2742,8 +2742,8 @@
         <v>3</v>
       </c>
       <c r="H13" s="11">
-        <f>SUM(D$4:D$23)</f>
-        <v>1.1569444444444446</v>
+        <f>SUM(D$4:D$24)</f>
+        <v>1.1583333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="H14" s="13">
         <f>SUM(H11+H12+H13)</f>
-        <v>3.4993055555555554</v>
+        <v>3.521527777777778</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2833,8 +2833,8 @@
         <v>11</v>
       </c>
       <c r="H17" s="18">
-        <f>COUNTA(E5:E23)</f>
-        <v>19</v>
+        <f>COUNTA(E5:E24)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="H18" s="19">
         <f ca="1">H19-H17</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H19" s="21">
         <f ca="1">TODAY()-A5</f>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2967,11 +2967,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="A24" s="24">
+        <v>44888</v>
+      </c>
+      <c r="B24" s="25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E24" s="25">
+        <f t="shared" si="0"/>
+        <v>2.222222222222222E-2</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
   </sheetData>
@@ -2983,7 +2994,7 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:B23">
+  <conditionalFormatting sqref="B4:B24">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -2993,7 +3004,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C23">
+  <conditionalFormatting sqref="C4:C24">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3003,7 +3014,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D23">
+  <conditionalFormatting sqref="D4:D24">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3013,7 +3024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E23">
+  <conditionalFormatting sqref="E4:E24">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3023,7 +3034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E23">
+  <conditionalFormatting sqref="E5:E24">
     <cfRule type="aboveAverage" dxfId="14" priority="43"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/website-coding-stats.xlsx
+++ b/website-coding-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\cypoo\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91E69F-51D9-4483-A6A2-802A160F27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAED4AD-1D1A-481F-B306-76428D8D2BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60BA45DA-04AF-4DD8-9CFE-F0F8685C6139}"/>
   </bookViews>
@@ -750,13 +750,13 @@
                 <c:formatCode>h:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.1979166666666664E-2</c:v>
+                  <c:v>6.8478260869565211E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6180555555555558E-2</c:v>
+                  <c:v>4.5893719806763288E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7916666666666672E-2</c:v>
+                  <c:v>5.4227053140096619E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17607638888888891</c:v>
@@ -1024,16 +1024,16 @@
                 <c:formatCode>[h]:mm;@</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4395833333333332</c:v>
+                  <c:v>1.575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92361111111111116</c:v>
+                  <c:v>1.0555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1583333333333334</c:v>
+                  <c:v>1.2472222222222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.521527777777778</c:v>
+                  <c:v>3.8777777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,13 +1320,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2146,8 +2146,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E24" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A4:E24" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}" name="Table1" displayName="Table1" ref="A4:E27" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A4:E27" xr:uid="{6020B1DA-1EC3-4347-8328-FD0C0AE4DF0C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E23">
     <sortCondition ref="A4:A23"/>
   </sortState>
@@ -2459,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8927EC-BC97-4DC3-9498-E2183903979F}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2551,8 +2551,8 @@
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f>AVERAGE(B$4:B$24)</f>
-        <v>7.1979166666666664E-2</v>
+        <f>AVERAGE(B$4:B$27)</f>
+        <v>6.8478260869565211E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2576,8 +2576,8 @@
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <f>AVERAGE(C$4:C$24)</f>
-        <v>4.6180555555555558E-2</v>
+        <f>AVERAGE(C$4:C$27)</f>
+        <v>4.5893719806763288E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2601,8 +2601,8 @@
         <v>3</v>
       </c>
       <c r="H7" s="3">
-        <f>AVERAGE(D$4:D$24)</f>
-        <v>5.7916666666666672E-2</v>
+        <f>AVERAGE(D$4:D$27)</f>
+        <v>5.4227053140096619E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2692,8 +2692,8 @@
         <v>1</v>
       </c>
       <c r="H11" s="11">
-        <f>SUM(B$4:B$24)</f>
-        <v>1.4395833333333332</v>
+        <f>SUM(B$4:B$27)</f>
+        <v>1.575</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2717,8 +2717,8 @@
         <v>2</v>
       </c>
       <c r="H12" s="12">
-        <f>SUM(C$4:C$24)</f>
-        <v>0.92361111111111116</v>
+        <f>SUM(C$4:C$27)</f>
+        <v>1.0555555555555556</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2742,8 +2742,8 @@
         <v>3</v>
       </c>
       <c r="H13" s="11">
-        <f>SUM(D$4:D$24)</f>
-        <v>1.1583333333333334</v>
+        <f>SUM(D$4:D$27)</f>
+        <v>1.2472222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="H14" s="13">
         <f>SUM(H11+H12+H13)</f>
-        <v>3.521527777777778</v>
+        <v>3.8777777777777778</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2833,8 +2833,8 @@
         <v>11</v>
       </c>
       <c r="H17" s="18">
-        <f>COUNTA(E5:E24)</f>
-        <v>20</v>
+        <f>COUNTA(E5:E27)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="H18" s="19">
         <f ca="1">H19-H17</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H19" s="21">
         <f ca="1">TODAY()-A5</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2984,6 +2984,74 @@
         <v>2.222222222222222E-2</v>
       </c>
       <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
+        <v>44890</v>
+      </c>
+      <c r="B25" s="25">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="C25" s="25">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="D25" s="25">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" ref="E25:E27" si="1">B25+C25+D25</f>
+        <v>4.791666666666667E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
+        <v>44894</v>
+      </c>
+      <c r="B26" s="25">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D26" s="25">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="1"/>
+        <v>8.4027777777777771E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>44895</v>
+      </c>
+      <c r="B27" s="25">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="D27" s="25">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="1"/>
+        <v>0.22430555555555554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2994,7 +3062,7 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:B24">
+  <conditionalFormatting sqref="B4:B27">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3004,7 +3072,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C24">
+  <conditionalFormatting sqref="C4:C27">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3014,7 +3082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D24">
+  <conditionalFormatting sqref="D4:D27">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3024,7 +3092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E24">
+  <conditionalFormatting sqref="E4:E27">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -3034,7 +3102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E24">
+  <conditionalFormatting sqref="E5:E27">
     <cfRule type="aboveAverage" dxfId="14" priority="43"/>
   </conditionalFormatting>
   <hyperlinks>
